--- a/图例制作.xlsx
+++ b/图例制作.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第3节" sheetId="1" r:id="rId1"/>
+    <sheet name="第3-2节" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>工作区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3956,6 +3957,2386 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="横卷形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="790575"/>
+          <a:ext cx="1200150" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>git-learning</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="1348978"/>
+          <a:ext cx="0" cy="1518047"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="折角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="1619249"/>
+          <a:ext cx="809625" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>readme.txt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="1905673"/>
+          <a:ext cx="828675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="2857500"/>
+          <a:ext cx="781050" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="右箭头 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="3314700"/>
+          <a:ext cx="771525" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="竖卷形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="1638300"/>
+          <a:ext cx="1990725" cy="4067176"/>
+        </a:xfrm>
+        <a:prstGeom prst="verticalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6177</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="1587327"/>
+          <a:ext cx="762000" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>stage</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="流程图: 预定义过程 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="790575"/>
+          <a:ext cx="1009650" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HEAD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4638675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="竖卷形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="1619250"/>
+          <a:ext cx="1990725" cy="4067176"/>
+        </a:xfrm>
+        <a:prstGeom prst="verticalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149052</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="1568277"/>
+          <a:ext cx="762000" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3000375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="横卷形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="1952625"/>
+          <a:ext cx="666750" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>git-learning</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3752850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="流程图: 文档 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="2505076"/>
+          <a:ext cx="419100" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="流程图: 文档 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="2819401"/>
+          <a:ext cx="419100" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3352800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="流程图: 文档 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="3162301"/>
+          <a:ext cx="419100" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="2282428"/>
+          <a:ext cx="0" cy="3022997"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="2609851"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3181350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="2933701"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3181350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="3286126"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3352800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3876675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="横卷形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="3495675"/>
+          <a:ext cx="523875" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文件夹</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3790950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4210050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="流程图: 文档 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9496425" y="4076701"/>
+          <a:ext cx="419100" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3800475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4219575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="流程图: 文档 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9505950" y="4381501"/>
+          <a:ext cx="419100" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3790950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4210050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="流程图: 文档 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9496425" y="4724401"/>
+          <a:ext cx="419100" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3514725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3514725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="3825478"/>
+          <a:ext cx="0" cy="1013222"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3514725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3790950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="4181475"/>
+          <a:ext cx="276225" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3524250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3800475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接箭头连接符 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="4486275"/>
+          <a:ext cx="276225" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3524250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3800475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="4838700"/>
+          <a:ext cx="276225" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3181350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="3714751"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343276</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3905250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="折角形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048751" y="5153024"/>
+          <a:ext cx="561974" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>readme</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="5305426"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2895616</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3542264</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="右箭头 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2364107">
+          <a:off x="8601091" y="1233071"/>
+          <a:ext cx="646648" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3562350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136122</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="3174597"/>
+          <a:ext cx="762000" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>add</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="折角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="2562224"/>
+          <a:ext cx="809625" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LICENSE</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="折角形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="2590799"/>
+          <a:ext cx="809625" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>readme.txt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="折角形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="3533774"/>
+          <a:ext cx="809625" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LICENSE</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4285,8 +6666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4720,4 +7101,382 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>